--- a/output/hca_measures.xlsx
+++ b/output/hca_measures.xlsx
@@ -1319,13 +1319,13 @@
         <v>81.0959677988843</v>
       </c>
       <c r="M2" t="n">
-        <v>5.85720116618076</v>
+        <v>0.610192061459665</v>
       </c>
       <c r="N2" t="n">
-        <v>4.20106899902818</v>
+        <v>0.435375160051218</v>
       </c>
       <c r="O2" t="n">
-        <v>5.69113702623907</v>
+        <v>0.514987195902688</v>
       </c>
     </row>
     <row r="3">
@@ -1366,13 +1366,13 @@
         <v>73.2352647233789</v>
       </c>
       <c r="M3" t="n">
-        <v>5.66154939106901</v>
+        <v>0.566883817427385</v>
       </c>
       <c r="N3" t="n">
-        <v>4.05949932341001</v>
+        <v>0.418576763485478</v>
       </c>
       <c r="O3" t="n">
-        <v>5.58098105548038</v>
+        <v>0.472161825726142</v>
       </c>
     </row>
     <row r="4">
@@ -1413,13 +1413,13 @@
         <v>37.7623966942149</v>
       </c>
       <c r="M4" t="n">
-        <v>6.04868852459016</v>
+        <v>0.635786516853933</v>
       </c>
       <c r="N4" t="n">
-        <v>4.12573770491803</v>
+        <v>0.450741573033708</v>
       </c>
       <c r="O4" t="n">
-        <v>5.56368852459016</v>
+        <v>0.515303370786517</v>
       </c>
     </row>
     <row r="5">
@@ -1460,13 +1460,13 @@
         <v>67.1000216262976</v>
       </c>
       <c r="M5" t="n">
-        <v>5.98865616311399</v>
+        <v>0.617074821852731</v>
       </c>
       <c r="N5" t="n">
-        <v>4.01353104726599</v>
+        <v>0.395663895486935</v>
       </c>
       <c r="O5" t="n">
-        <v>5.74257645968489</v>
+        <v>0.454577197149643</v>
       </c>
     </row>
     <row r="6">
@@ -1507,13 +1507,13 @@
         <v>72.0428797515602</v>
       </c>
       <c r="M6" t="n">
-        <v>5.90855436832181</v>
+        <v>0.599147450980394</v>
       </c>
       <c r="N6" t="n">
-        <v>4.06006285355123</v>
+        <v>0.39067529411765</v>
       </c>
       <c r="O6" t="n">
-        <v>5.64007542426147</v>
+        <v>0.445354509803923</v>
       </c>
     </row>
     <row r="7">
@@ -1554,13 +1554,13 @@
         <v>43.2386363636364</v>
       </c>
       <c r="M7" t="n">
-        <v>5.67127208480565</v>
+        <v>0.569949494949495</v>
       </c>
       <c r="N7" t="n">
-        <v>4.13321554770318</v>
+        <v>0.4295</v>
       </c>
       <c r="O7" t="n">
-        <v>5.46120141342756</v>
+        <v>0.467247474747474</v>
       </c>
     </row>
     <row r="8">
@@ -1601,13 +1601,13 @@
         <v>86.8484561969124</v>
       </c>
       <c r="M8" t="n">
-        <v>5.84459841129744</v>
+        <v>0.607312712826335</v>
       </c>
       <c r="N8" t="n">
-        <v>4.11</v>
+        <v>0.430457434733259</v>
       </c>
       <c r="O8" t="n">
-        <v>5.59626213592233</v>
+        <v>0.499984676503974</v>
       </c>
     </row>
     <row r="9">
@@ -1648,13 +1648,13 @@
         <v>107.310113574905</v>
       </c>
       <c r="M9" t="n">
-        <v>5.97023686477175</v>
+        <v>0.626750560538113</v>
       </c>
       <c r="N9" t="n">
-        <v>4.05851421188631</v>
+        <v>0.415704596412557</v>
       </c>
       <c r="O9" t="n">
-        <v>5.61459086993971</v>
+        <v>0.501279708520183</v>
       </c>
     </row>
     <row r="10">
@@ -1695,13 +1695,13 @@
         <v>67.1720773128167</v>
       </c>
       <c r="M10" t="n">
-        <v>5.73695652173913</v>
+        <v>0.628528169014085</v>
       </c>
       <c r="N10" t="n">
-        <v>4.0033152173913</v>
+        <v>0.434079812206574</v>
       </c>
       <c r="O10" t="n">
-        <v>5.65579710144928</v>
+        <v>0.537476525821596</v>
       </c>
     </row>
     <row r="11">
@@ -1742,13 +1742,13 @@
         <v>60.9516357768106</v>
       </c>
       <c r="M11" t="n">
-        <v>5.74771851851852</v>
+        <v>0.60670443645084</v>
       </c>
       <c r="N11" t="n">
-        <v>4.03899259259259</v>
+        <v>0.428110911270984</v>
       </c>
       <c r="O11" t="n">
-        <v>5.61947160493827</v>
+        <v>0.520285971223023</v>
       </c>
     </row>
     <row r="12">
@@ -1789,13 +1789,13 @@
         <v>74.9614984391259</v>
       </c>
       <c r="M12" t="n">
-        <v>6.00490774907749</v>
+        <v>0.594145833333332</v>
       </c>
       <c r="N12" t="n">
-        <v>4.11416974169742</v>
+        <v>0.394247685185186</v>
       </c>
       <c r="O12" t="n">
-        <v>5.58428044280443</v>
+        <v>0.439601851851852</v>
       </c>
     </row>
     <row r="13">
@@ -1836,13 +1836,13 @@
         <v>75.960968286733</v>
       </c>
       <c r="M13" t="n">
-        <v>5.68488151658768</v>
+        <v>0.546181632653061</v>
       </c>
       <c r="N13" t="n">
-        <v>4.04206951026856</v>
+        <v>0.415418367346939</v>
       </c>
       <c r="O13" t="n">
-        <v>5.58584518167457</v>
+        <v>0.459646938775511</v>
       </c>
     </row>
     <row r="14">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>8.62977001435869</v>
+        <v>8.6297700143587</v>
       </c>
       <c r="H14" t="n">
         <v>0.707377049180328</v>
@@ -1883,13 +1883,13 @@
         <v>75.0077527950139</v>
       </c>
       <c r="M14" t="n">
-        <v>5.83264823896567</v>
+        <v>0.601563170441003</v>
       </c>
       <c r="N14" t="n">
-        <v>4.05830138207758</v>
+        <v>0.421324195470799</v>
       </c>
       <c r="O14" t="n">
-        <v>5.58551047703968</v>
+        <v>0.50235041716329</v>
       </c>
     </row>
     <row r="15">
@@ -1930,13 +1930,13 @@
         <v>60.5023961202938</v>
       </c>
       <c r="M15" t="n">
-        <v>5.90846343873518</v>
+        <v>0.611337646333949</v>
       </c>
       <c r="N15" t="n">
-        <v>4.11139822134387</v>
+        <v>0.423217498459644</v>
       </c>
       <c r="O15" t="n">
-        <v>5.62913043478261</v>
+        <v>0.506246457178067</v>
       </c>
     </row>
     <row r="16">
@@ -1977,13 +1977,13 @@
         <v>76.4368158146456</v>
       </c>
       <c r="M16" t="n">
-        <v>6.06188654353562</v>
+        <v>0.635244482173174</v>
       </c>
       <c r="N16" t="n">
-        <v>4.0573746701847</v>
+        <v>0.419505942275043</v>
       </c>
       <c r="O16" t="n">
-        <v>5.76865435356201</v>
+        <v>0.515285229202037</v>
       </c>
     </row>
     <row r="17">
@@ -2024,13 +2024,13 @@
         <v>63.4010385219176</v>
       </c>
       <c r="M17" t="n">
-        <v>5.9003605015674</v>
+        <v>0.60843396226415</v>
       </c>
       <c r="N17" t="n">
-        <v>4.10399686520376</v>
+        <v>0.436236897274633</v>
       </c>
       <c r="O17" t="n">
-        <v>5.64909090909091</v>
+        <v>0.491691823899371</v>
       </c>
     </row>
     <row r="18">
@@ -2071,13 +2071,13 @@
         <v>77.9708049886621</v>
       </c>
       <c r="M18" t="n">
-        <v>5.73006657789614</v>
+        <v>0.567459649122806</v>
       </c>
       <c r="N18" t="n">
-        <v>4.19486018641811</v>
+        <v>0.407843859649123</v>
       </c>
       <c r="O18" t="n">
-        <v>5.52580559254328</v>
+        <v>0.449463157894737</v>
       </c>
     </row>
     <row r="19">
@@ -2118,13 +2118,13 @@
         <v>56.9857572036314</v>
       </c>
       <c r="M19" t="n">
-        <v>5.82849734042553</v>
+        <v>0.595578796561605</v>
       </c>
       <c r="N19" t="n">
-        <v>3.96594858156028</v>
+        <v>0.407009742120346</v>
       </c>
       <c r="O19" t="n">
-        <v>5.57887854609929</v>
+        <v>0.484452148997136</v>
       </c>
     </row>
     <row r="20">
@@ -2165,13 +2165,13 @@
         <v>130.04296875</v>
       </c>
       <c r="M20" t="n">
-        <v>5.54280104712042</v>
+        <v>0.584191729323308</v>
       </c>
       <c r="N20" t="n">
-        <v>4.31973821989529</v>
+        <v>0.475218045112782</v>
       </c>
       <c r="O20" t="n">
-        <v>5.46458115183246</v>
+        <v>0.541421052631579</v>
       </c>
     </row>
     <row r="21">
@@ -2212,13 +2212,13 @@
         <v>71.4346989588049</v>
       </c>
       <c r="M21" t="n">
-        <v>5.8138567674113</v>
+        <v>0.593335101679929</v>
       </c>
       <c r="N21" t="n">
-        <v>4.05068988173456</v>
+        <v>0.407477453580902</v>
       </c>
       <c r="O21" t="n">
-        <v>5.59722076215506</v>
+        <v>0.476549955791336</v>
       </c>
     </row>
     <row r="22">
@@ -2259,13 +2259,13 @@
         <v>58.9908078934053</v>
       </c>
       <c r="M22" t="n">
-        <v>5.85333624454148</v>
+        <v>0.6146647597254</v>
       </c>
       <c r="N22" t="n">
-        <v>4.04758951965065</v>
+        <v>0.40633180778032</v>
       </c>
       <c r="O22" t="n">
-        <v>5.60711790393013</v>
+        <v>0.499622425629292</v>
       </c>
     </row>
     <row r="23">
@@ -2306,13 +2306,13 @@
         <v>63.0748299319728</v>
       </c>
       <c r="M23" t="n">
-        <v>5.83372222222222</v>
+        <v>0.636938461538461</v>
       </c>
       <c r="N23" t="n">
-        <v>3.95883333333333</v>
+        <v>0.382069230769231</v>
       </c>
       <c r="O23" t="n">
-        <v>5.575</v>
+        <v>0.475592307692308</v>
       </c>
     </row>
     <row r="24">
@@ -2353,13 +2353,13 @@
         <v>62.6992715920916</v>
       </c>
       <c r="M24" t="n">
-        <v>5.65766798418972</v>
+        <v>0.564831632653061</v>
       </c>
       <c r="N24" t="n">
-        <v>4.1103162055336</v>
+        <v>0.424989795918368</v>
       </c>
       <c r="O24" t="n">
-        <v>5.42695652173913</v>
+        <v>0.463219387755102</v>
       </c>
     </row>
     <row r="25">
@@ -2400,13 +2400,13 @@
         <v>58.1446208112875</v>
       </c>
       <c r="M25" t="n">
-        <v>5.98732886904762</v>
+        <v>0.606557884231537</v>
       </c>
       <c r="N25" t="n">
-        <v>3.98036458333333</v>
+        <v>0.400610778443114</v>
       </c>
       <c r="O25" t="n">
-        <v>5.703125</v>
+        <v>0.466995009980038</v>
       </c>
     </row>
     <row r="26">
@@ -2447,13 +2447,13 @@
         <v>53.1284013605442</v>
       </c>
       <c r="M26" t="n">
-        <v>6.02706563706564</v>
+        <v>0.625068421052631</v>
       </c>
       <c r="N26" t="n">
-        <v>4.2596332046332</v>
+        <v>0.451450000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>5.77218146718147</v>
+        <v>0.508273684210527</v>
       </c>
     </row>
     <row r="27">
@@ -2494,13 +2494,13 @@
         <v>71.325</v>
       </c>
       <c r="M27" t="n">
-        <v>6.03654285714286</v>
+        <v>0.64489928057554</v>
       </c>
       <c r="N27" t="n">
-        <v>4.12122857142857</v>
+        <v>0.391802158273381</v>
       </c>
       <c r="O27" t="n">
-        <v>5.5614</v>
+        <v>0.476456834532374</v>
       </c>
     </row>
     <row r="28">
@@ -2541,13 +2541,13 @@
         <v>72.917685218148</v>
       </c>
       <c r="M28" t="n">
-        <v>5.9952224824356</v>
+        <v>0.640442815249266</v>
       </c>
       <c r="N28" t="n">
-        <v>4.05341139734582</v>
+        <v>0.438171065493646</v>
       </c>
       <c r="O28" t="n">
-        <v>5.75889929742389</v>
+        <v>0.525624633431085</v>
       </c>
     </row>
     <row r="29">
@@ -2582,19 +2582,19 @@
         <v>0.469962785752259</v>
       </c>
       <c r="K29" t="n">
-        <v>0.530037214247741</v>
+        <v>0.53003721424774</v>
       </c>
       <c r="L29" t="n">
         <v>74.3762755102041</v>
       </c>
       <c r="M29" t="n">
-        <v>5.80056155507559</v>
+        <v>0.586975206611569</v>
       </c>
       <c r="N29" t="n">
-        <v>4.16792656587473</v>
+        <v>0.427621671258036</v>
       </c>
       <c r="O29" t="n">
-        <v>5.56331893448524</v>
+        <v>0.464724517906337</v>
       </c>
     </row>
     <row r="30">
@@ -2629,19 +2629,19 @@
         <v>0.44568868980963</v>
       </c>
       <c r="K30" t="n">
-        <v>0.554311310190369</v>
+        <v>0.55431131019037</v>
       </c>
       <c r="L30" t="n">
         <v>56.1290170132325</v>
       </c>
       <c r="M30" t="n">
-        <v>5.94534545454545</v>
+        <v>0.668646017699114</v>
       </c>
       <c r="N30" t="n">
-        <v>3.99570909090909</v>
+        <v>0.405429203539823</v>
       </c>
       <c r="O30" t="n">
-        <v>5.77890909090909</v>
+        <v>0.496097345132743</v>
       </c>
     </row>
     <row r="31">
@@ -2682,13 +2682,13 @@
         <v>83.8754325259516</v>
       </c>
       <c r="M31" t="n">
-        <v>6.01131896551724</v>
+        <v>0.630032258064516</v>
       </c>
       <c r="N31" t="n">
-        <v>3.97669827586207</v>
+        <v>0.408213859020311</v>
       </c>
       <c r="O31" t="n">
-        <v>5.63062068965517</v>
+        <v>0.493390681003585</v>
       </c>
     </row>
     <row r="32">
@@ -2729,13 +2729,13 @@
         <v>75.4832347140039</v>
       </c>
       <c r="M32" t="n">
-        <v>5.90102688408991</v>
+        <v>0.596549788774895</v>
       </c>
       <c r="N32" t="n">
-        <v>4.02420008814456</v>
+        <v>0.40145805672903</v>
       </c>
       <c r="O32" t="n">
-        <v>5.60629352137506</v>
+        <v>0.463439348219675</v>
       </c>
     </row>
     <row r="33">
@@ -2776,13 +2776,13 @@
         <v>80.8141520387952</v>
       </c>
       <c r="M33" t="n">
-        <v>6.07184919210054</v>
+        <v>0.638922572178477</v>
       </c>
       <c r="N33" t="n">
-        <v>4.00245960502693</v>
+        <v>0.388007874015748</v>
       </c>
       <c r="O33" t="n">
-        <v>5.68545780969479</v>
+        <v>0.486620734908136</v>
       </c>
     </row>
     <row r="34">
@@ -2823,13 +2823,13 @@
         <v>85.6955415213498</v>
       </c>
       <c r="M34" t="n">
-        <v>5.75888268156425</v>
+        <v>0.613589506172838</v>
       </c>
       <c r="N34" t="n">
-        <v>4.0753407821229</v>
+        <v>0.434109567901234</v>
       </c>
       <c r="O34" t="n">
-        <v>5.62877094972067</v>
+        <v>0.491885802469136</v>
       </c>
     </row>
     <row r="35">
@@ -2870,13 +2870,13 @@
         <v>79.6181799250312</v>
       </c>
       <c r="M35" t="n">
-        <v>5.77707466340269</v>
+        <v>0.602619344773791</v>
       </c>
       <c r="N35" t="n">
-        <v>4.04293757649939</v>
+        <v>0.411102964118565</v>
       </c>
       <c r="O35" t="n">
-        <v>5.58260709914321</v>
+        <v>0.472460218408738</v>
       </c>
     </row>
     <row r="36">
@@ -2917,13 +2917,13 @@
         <v>69.4873046875</v>
       </c>
       <c r="M36" t="n">
-        <v>5.82041666666667</v>
+        <v>0.604171270718233</v>
       </c>
       <c r="N36" t="n">
-        <v>4.07134259259259</v>
+        <v>0.441281767955801</v>
       </c>
       <c r="O36" t="n">
-        <v>5.65412037037037</v>
+        <v>0.517436464088398</v>
       </c>
     </row>
     <row r="37">
@@ -2964,13 +2964,13 @@
         <v>69.674592287761</v>
       </c>
       <c r="M37" t="n">
-        <v>5.69043554006969</v>
+        <v>0.575369469026548</v>
       </c>
       <c r="N37" t="n">
-        <v>3.945</v>
+        <v>0.411566371681416</v>
       </c>
       <c r="O37" t="n">
-        <v>5.64407665505226</v>
+        <v>0.471630530973451</v>
       </c>
     </row>
     <row r="38">
@@ -3011,13 +3011,13 @@
         <v>116.963733650416</v>
       </c>
       <c r="M38" t="n">
-        <v>5.78162337662338</v>
+        <v>0.635844393592677</v>
       </c>
       <c r="N38" t="n">
-        <v>4.09849025974026</v>
+        <v>0.409869565217391</v>
       </c>
       <c r="O38" t="n">
-        <v>5.62176948051948</v>
+        <v>0.529629290617849</v>
       </c>
     </row>
     <row r="39">
@@ -3058,13 +3058,13 @@
         <v>153.060344827586</v>
       </c>
       <c r="M39" t="n">
-        <v>5.93842329545454</v>
+        <v>0.619511070110702</v>
       </c>
       <c r="N39" t="n">
-        <v>3.96950284090909</v>
+        <v>0.406308118081181</v>
       </c>
       <c r="O39" t="n">
-        <v>5.66178977272727</v>
+        <v>0.493226937269373</v>
       </c>
     </row>
     <row r="40">
@@ -3105,13 +3105,13 @@
         <v>78.75</v>
       </c>
       <c r="M40" t="n">
-        <v>5.90209219858156</v>
+        <v>0.634079295154185</v>
       </c>
       <c r="N40" t="n">
-        <v>3.94436170212766</v>
+        <v>0.384559471365639</v>
       </c>
       <c r="O40" t="n">
-        <v>5.69177304964539</v>
+        <v>0.471718061674008</v>
       </c>
     </row>
     <row r="41">
@@ -3152,13 +3152,13 @@
         <v>56.2950052029136</v>
       </c>
       <c r="M41" t="n">
-        <v>5.724140625</v>
+        <v>0.588066666666667</v>
       </c>
       <c r="N41" t="n">
-        <v>4.017265625</v>
+        <v>0.40320701754386</v>
       </c>
       <c r="O41" t="n">
-        <v>5.63604166666667</v>
+        <v>0.480884210526316</v>
       </c>
     </row>
     <row r="42">
@@ -3199,13 +3199,13 @@
         <v>79.4625</v>
       </c>
       <c r="M42" t="n">
-        <v>5.73339522546419</v>
+        <v>0.565302013422819</v>
       </c>
       <c r="N42" t="n">
-        <v>4.08082228116711</v>
+        <v>0.417453020134228</v>
       </c>
       <c r="O42" t="n">
-        <v>5.48538461538462</v>
+        <v>0.451026845637584</v>
       </c>
     </row>
     <row r="43">
@@ -3246,13 +3246,13 @@
         <v>58.13671875</v>
       </c>
       <c r="M43" t="n">
-        <v>5.62262773722628</v>
+        <v>0.574636363636364</v>
       </c>
       <c r="N43" t="n">
-        <v>4.0114598540146</v>
+        <v>0.431236363636363</v>
       </c>
       <c r="O43" t="n">
-        <v>5.41445255474453</v>
+        <v>0.489990909090909</v>
       </c>
     </row>
     <row r="44">
@@ -3293,13 +3293,13 @@
         <v>105.520661157025</v>
       </c>
       <c r="M44" t="n">
-        <v>5.83980392156863</v>
+        <v>0.607133640552996</v>
       </c>
       <c r="N44" t="n">
-        <v>4.13039215686275</v>
+        <v>0.423064516129032</v>
       </c>
       <c r="O44" t="n">
-        <v>5.53411764705882</v>
+        <v>0.479677419354838</v>
       </c>
     </row>
     <row r="45">
@@ -3340,13 +3340,13 @@
         <v>82.3610908205503</v>
       </c>
       <c r="M45" t="n">
-        <v>5.83149542217701</v>
+        <v>0.620059354838708</v>
       </c>
       <c r="N45" t="n">
-        <v>3.88423194303154</v>
+        <v>0.391498064516129</v>
       </c>
       <c r="O45" t="n">
-        <v>5.63451678535097</v>
+        <v>0.504254193548388</v>
       </c>
     </row>
     <row r="46">
@@ -3387,13 +3387,13 @@
         <v>56.132974952741</v>
       </c>
       <c r="M46" t="n">
-        <v>5.95091492776886</v>
+        <v>0.622318791946308</v>
       </c>
       <c r="N46" t="n">
-        <v>3.9619341894061</v>
+        <v>0.403355704697987</v>
       </c>
       <c r="O46" t="n">
-        <v>5.64888443017657</v>
+        <v>0.481729306487697</v>
       </c>
     </row>
     <row r="47">
@@ -3434,13 +3434,13 @@
         <v>66.7469387755102</v>
       </c>
       <c r="M47" t="n">
-        <v>5.90704887218045</v>
+        <v>0.610327014218009</v>
       </c>
       <c r="N47" t="n">
-        <v>4.04140977443609</v>
+        <v>0.404556872037914</v>
       </c>
       <c r="O47" t="n">
-        <v>5.63597744360902</v>
+        <v>0.485592417061611</v>
       </c>
     </row>
     <row r="48">
@@ -3481,13 +3481,13 @@
         <v>61.5471253961068</v>
       </c>
       <c r="M48" t="n">
-        <v>5.95596830985915</v>
+        <v>0.614531598513014</v>
       </c>
       <c r="N48" t="n">
-        <v>4.00635563380282</v>
+        <v>0.416945724907065</v>
       </c>
       <c r="O48" t="n">
-        <v>5.66323943661972</v>
+        <v>0.493931598513014</v>
       </c>
     </row>
     <row r="49">
@@ -3528,13 +3528,13 @@
         <v>72.240312480625</v>
       </c>
       <c r="M49" t="n">
-        <v>5.70283333333333</v>
+        <v>0.58057414448669</v>
       </c>
       <c r="N49" t="n">
-        <v>3.9599298245614</v>
+        <v>0.383239543726236</v>
       </c>
       <c r="O49" t="n">
-        <v>5.54600877192982</v>
+        <v>0.466065906210392</v>
       </c>
     </row>
     <row r="50">
@@ -3575,13 +3575,13 @@
         <v>33.4529085872576</v>
       </c>
       <c r="M50" t="n">
-        <v>5.74827027027027</v>
+        <v>0.606545454545455</v>
       </c>
       <c r="N50" t="n">
-        <v>4.15091891891892</v>
+        <v>0.419840909090909</v>
       </c>
       <c r="O50" t="n">
-        <v>5.62756756756757</v>
+        <v>0.47205303030303</v>
       </c>
     </row>
     <row r="51">
@@ -3622,13 +3622,13 @@
         <v>76.3930578512397</v>
       </c>
       <c r="M51" t="n">
-        <v>5.93407862407862</v>
+        <v>0.648772563176895</v>
       </c>
       <c r="N51" t="n">
-        <v>4.02796068796069</v>
+        <v>0.413220216606498</v>
       </c>
       <c r="O51" t="n">
-        <v>5.67587223587224</v>
+        <v>0.516935018050541</v>
       </c>
     </row>
     <row r="52">
@@ -3669,13 +3669,13 @@
         <v>62.4163446130644</v>
       </c>
       <c r="M52" t="n">
-        <v>5.79469086021505</v>
+        <v>0.591145421903052</v>
       </c>
       <c r="N52" t="n">
-        <v>4.08447580645161</v>
+        <v>0.418204667863554</v>
       </c>
       <c r="O52" t="n">
-        <v>5.53926075268817</v>
+        <v>0.473897666068222</v>
       </c>
     </row>
     <row r="53">
@@ -3716,13 +3716,13 @@
         <v>51.336</v>
       </c>
       <c r="M53" t="n">
-        <v>5.69282051282051</v>
+        <v>0.607691119691119</v>
       </c>
       <c r="N53" t="n">
-        <v>3.96592948717949</v>
+        <v>0.424606177606178</v>
       </c>
       <c r="O53" t="n">
-        <v>5.61298076923077</v>
+        <v>0.487687258687259</v>
       </c>
     </row>
     <row r="54">
@@ -3763,13 +3763,13 @@
         <v>70.5526149968494</v>
       </c>
       <c r="M54" t="n">
-        <v>6.09106666666667</v>
+        <v>0.63891325301205</v>
       </c>
       <c r="N54" t="n">
-        <v>4.10579047619048</v>
+        <v>0.410103614457832</v>
       </c>
       <c r="O54" t="n">
-        <v>5.7264380952381</v>
+        <v>0.504850602409639</v>
       </c>
     </row>
     <row r="55">
@@ -3810,13 +3810,13 @@
         <v>82.6666666666667</v>
       </c>
       <c r="M55" t="n">
-        <v>5.96232142857143</v>
+        <v>0.64163924050633</v>
       </c>
       <c r="N55" t="n">
-        <v>4.05672619047619</v>
+        <v>0.397930379746835</v>
       </c>
       <c r="O55" t="n">
-        <v>5.56083333333333</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="56">
@@ -3857,13 +3857,13 @@
         <v>82.0474537037037</v>
       </c>
       <c r="M56" t="n">
-        <v>5.47900914634146</v>
+        <v>0.555149606299213</v>
       </c>
       <c r="N56" t="n">
-        <v>4.2190243902439</v>
+        <v>0.460488188976378</v>
       </c>
       <c r="O56" t="n">
-        <v>5.41317073170732</v>
+        <v>0.508433070866143</v>
       </c>
     </row>
     <row r="57">
@@ -3904,13 +3904,13 @@
         <v>73.9989186851211</v>
       </c>
       <c r="M57" t="n">
-        <v>5.95590740740741</v>
+        <v>0.657801864801865</v>
       </c>
       <c r="N57" t="n">
-        <v>4.04233333333333</v>
+        <v>0.439421911421912</v>
       </c>
       <c r="O57" t="n">
-        <v>5.74125925925926</v>
+        <v>0.56144055944056</v>
       </c>
     </row>
     <row r="58">
@@ -3951,13 +3951,13 @@
         <v>96.8832</v>
       </c>
       <c r="M58" t="n">
-        <v>5.7106374501992</v>
+        <v>0.572683937823834</v>
       </c>
       <c r="N58" t="n">
-        <v>4.01470119521912</v>
+        <v>0.382502590673575</v>
       </c>
       <c r="O58" t="n">
-        <v>5.66183266932271</v>
+        <v>0.471264248704663</v>
       </c>
     </row>
     <row r="59">
@@ -3998,13 +3998,13 @@
         <v>83.1145314622001</v>
       </c>
       <c r="M59" t="n">
-        <v>5.69109339407745</v>
+        <v>0.605375</v>
       </c>
       <c r="N59" t="n">
-        <v>3.97375854214123</v>
+        <v>0.382997023809524</v>
       </c>
       <c r="O59" t="n">
-        <v>5.5870159453303</v>
+        <v>0.496535714285715</v>
       </c>
     </row>
     <row r="60">
@@ -4045,13 +4045,13 @@
         <v>78.2956104252401</v>
       </c>
       <c r="M60" t="n">
-        <v>5.97687635574837</v>
+        <v>0.645945355191257</v>
       </c>
       <c r="N60" t="n">
-        <v>4.00911062906725</v>
+        <v>0.41574043715847</v>
       </c>
       <c r="O60" t="n">
-        <v>5.68861171366594</v>
+        <v>0.496073770491803</v>
       </c>
     </row>
     <row r="61">
@@ -4092,13 +4092,13 @@
         <v>57.7278106508876</v>
       </c>
       <c r="M61" t="n">
-        <v>6.09966257668712</v>
+        <v>0.678398305084746</v>
       </c>
       <c r="N61" t="n">
-        <v>4.12996932515337</v>
+        <v>0.409203389830508</v>
       </c>
       <c r="O61" t="n">
-        <v>5.73858895705521</v>
+        <v>0.533309322033898</v>
       </c>
     </row>
     <row r="62">
@@ -4139,13 +4139,13 @@
         <v>80.5555555555556</v>
       </c>
       <c r="M62" t="n">
-        <v>5.82273092369478</v>
+        <v>0.631263157894737</v>
       </c>
       <c r="N62" t="n">
-        <v>3.95534136546185</v>
+        <v>0.40108947368421</v>
       </c>
       <c r="O62" t="n">
-        <v>5.60449799196787</v>
+        <v>0.53688947368421</v>
       </c>
     </row>
     <row r="63">
@@ -4186,13 +4186,13 @@
         <v>84.48</v>
       </c>
       <c r="M63" t="n">
-        <v>5.87327956989247</v>
+        <v>0.61794</v>
       </c>
       <c r="N63" t="n">
-        <v>4.14774193548387</v>
+        <v>0.427153333333333</v>
       </c>
       <c r="O63" t="n">
-        <v>5.61295698924731</v>
+        <v>0.515826666666666</v>
       </c>
     </row>
     <row r="64">
@@ -4233,13 +4233,13 @@
         <v>65.25493337831</v>
       </c>
       <c r="M64" t="n">
-        <v>5.91745218056618</v>
+        <v>0.619927624872579</v>
       </c>
       <c r="N64" t="n">
-        <v>3.98700076511094</v>
+        <v>0.394218144750255</v>
       </c>
       <c r="O64" t="n">
-        <v>5.57317521040551</v>
+        <v>0.484156982670745</v>
       </c>
     </row>
     <row r="65">
@@ -4280,13 +4280,13 @@
         <v>62.5440778799351</v>
       </c>
       <c r="M65" t="n">
-        <v>5.69756183745583</v>
+        <v>0.54645</v>
       </c>
       <c r="N65" t="n">
-        <v>3.96593639575972</v>
+        <v>0.4121</v>
       </c>
       <c r="O65" t="n">
-        <v>5.59812720848057</v>
+        <v>0.456175</v>
       </c>
     </row>
     <row r="66">
@@ -4327,13 +4327,13 @@
         <v>104.320661157025</v>
       </c>
       <c r="M66" t="n">
-        <v>5.82056201550388</v>
+        <v>0.617562790697676</v>
       </c>
       <c r="N66" t="n">
-        <v>4.02583333333333</v>
+        <v>0.417662790697674</v>
       </c>
       <c r="O66" t="n">
-        <v>5.64666666666667</v>
+        <v>0.518269767441861</v>
       </c>
     </row>
     <row r="67">
@@ -4374,13 +4374,13 @@
         <v>99.8820301783265</v>
       </c>
       <c r="M67" t="n">
-        <v>5.59941666666667</v>
+        <v>0.558074074074074</v>
       </c>
       <c r="N67" t="n">
-        <v>4.00970833333333</v>
+        <v>0.41068253968254</v>
       </c>
       <c r="O67" t="n">
-        <v>5.54645833333333</v>
+        <v>0.476931216931217</v>
       </c>
     </row>
     <row r="68">
@@ -4421,13 +4421,13 @@
         <v>86.3551422005171</v>
       </c>
       <c r="M68" t="n">
-        <v>5.90075201432408</v>
+        <v>0.639714285714285</v>
       </c>
       <c r="N68" t="n">
-        <v>3.99496866606983</v>
+        <v>0.409495798319328</v>
       </c>
       <c r="O68" t="n">
-        <v>5.64966875559534</v>
+        <v>0.526787515006003</v>
       </c>
     </row>
     <row r="69">
@@ -4468,13 +4468,13 @@
         <v>116.636834319527</v>
       </c>
       <c r="M69" t="n">
-        <v>5.85695167286245</v>
+        <v>0.609691954022988</v>
       </c>
       <c r="N69" t="n">
-        <v>4.04884758364312</v>
+        <v>0.401328735632185</v>
       </c>
       <c r="O69" t="n">
-        <v>5.73912639405204</v>
+        <v>0.487291954022988</v>
       </c>
     </row>
     <row r="70">
@@ -4515,13 +4515,13 @@
         <v>94.1617473435655</v>
       </c>
       <c r="M70" t="n">
-        <v>6.02540928674007</v>
+        <v>0.637897856242118</v>
       </c>
       <c r="N70" t="n">
-        <v>4.02102441359502</v>
+        <v>0.409124211853721</v>
       </c>
       <c r="O70" t="n">
-        <v>5.67819052178076</v>
+        <v>0.510774905422447</v>
       </c>
     </row>
     <row r="71">
@@ -4562,13 +4562,13 @@
         <v>105.7224</v>
       </c>
       <c r="M71" t="n">
-        <v>5.95821276595745</v>
+        <v>0.607522546419099</v>
       </c>
       <c r="N71" t="n">
-        <v>3.981</v>
+        <v>0.386493368700266</v>
       </c>
       <c r="O71" t="n">
-        <v>5.63695744680851</v>
+        <v>0.475050397877984</v>
       </c>
     </row>
     <row r="72">
@@ -4609,13 +4609,13 @@
         <v>51.2564809931437</v>
       </c>
       <c r="M72" t="n">
-        <v>5.77354392892399</v>
+        <v>0.591111248454881</v>
       </c>
       <c r="N72" t="n">
-        <v>4.07051332675222</v>
+        <v>0.405629171817057</v>
       </c>
       <c r="O72" t="n">
-        <v>5.5793385982231</v>
+        <v>0.478205191594561</v>
       </c>
     </row>
     <row r="73">
@@ -4656,13 +4656,13 @@
         <v>57.9891358024691</v>
       </c>
       <c r="M73" t="n">
-        <v>5.97098404255319</v>
+        <v>0.641082568807339</v>
       </c>
       <c r="N73" t="n">
-        <v>4.04574468085106</v>
+        <v>0.409348623853211</v>
       </c>
       <c r="O73" t="n">
-        <v>5.64420212765957</v>
+        <v>0.52114373088685</v>
       </c>
     </row>
     <row r="74">
@@ -4703,13 +4703,13 @@
         <v>76.838134430727</v>
       </c>
       <c r="M74" t="n">
-        <v>5.7889400921659</v>
+        <v>0.592223602484472</v>
       </c>
       <c r="N74" t="n">
-        <v>3.85838709677419</v>
+        <v>0.400136645962733</v>
       </c>
       <c r="O74" t="n">
-        <v>5.686866359447</v>
+        <v>0.514472049689441</v>
       </c>
     </row>
     <row r="75">
@@ -4750,13 +4750,13 @@
         <v>99.7777777777778</v>
       </c>
       <c r="M75" t="n">
-        <v>5.95582352941176</v>
+        <v>0.642312030075188</v>
       </c>
       <c r="N75" t="n">
-        <v>3.94179411764706</v>
+        <v>0.379259398496241</v>
       </c>
       <c r="O75" t="n">
-        <v>5.67217647058824</v>
+        <v>0.501255639097745</v>
       </c>
     </row>
     <row r="76">
@@ -4788,22 +4788,22 @@
         <v>62.3529411764706</v>
       </c>
       <c r="J76" t="n">
-        <v>0.449790794979079</v>
+        <v>0.44979079497908</v>
       </c>
       <c r="K76" t="n">
-        <v>0.550209205020921</v>
+        <v>0.55020920502092</v>
       </c>
       <c r="L76" t="n">
         <v>86.7285318559557</v>
       </c>
       <c r="M76" t="n">
-        <v>5.89114006514658</v>
+        <v>0.618452991452991</v>
       </c>
       <c r="N76" t="n">
-        <v>4.05449511400651</v>
+        <v>0.447213675213675</v>
       </c>
       <c r="O76" t="n">
-        <v>5.69657980456026</v>
+        <v>0.508461538461539</v>
       </c>
     </row>
     <row r="77">
@@ -4844,13 +4844,13 @@
         <v>57.792</v>
       </c>
       <c r="M77" t="n">
-        <v>5.89892105263158</v>
+        <v>0.622489932885906</v>
       </c>
       <c r="N77" t="n">
-        <v>3.97773684210526</v>
+        <v>0.38120134228188</v>
       </c>
       <c r="O77" t="n">
-        <v>5.64273684210526</v>
+        <v>0.505714765100671</v>
       </c>
     </row>
     <row r="78">
@@ -4891,13 +4891,13 @@
         <v>57.6665142508764</v>
       </c>
       <c r="M78" t="n">
-        <v>5.83158316633267</v>
+        <v>0.605611246943764</v>
       </c>
       <c r="N78" t="n">
-        <v>4.00579158316633</v>
+        <v>0.425459657701712</v>
       </c>
       <c r="O78" t="n">
-        <v>5.72527054108216</v>
+        <v>0.508180929095355</v>
       </c>
     </row>
     <row r="79">
@@ -4938,13 +4938,13 @@
         <v>68.4710529446758</v>
       </c>
       <c r="M79" t="n">
-        <v>5.92679245283019</v>
+        <v>0.614712739383847</v>
       </c>
       <c r="N79" t="n">
-        <v>4.05422641509434</v>
+        <v>0.409287260616153</v>
       </c>
       <c r="O79" t="n">
-        <v>5.62016981132075</v>
+        <v>0.49306411323897</v>
       </c>
     </row>
     <row r="80">
@@ -4985,13 +4985,13 @@
         <v>70.896447467876</v>
       </c>
       <c r="M80" t="n">
-        <v>5.65172757475083</v>
+        <v>0.588178571428571</v>
       </c>
       <c r="N80" t="n">
-        <v>4.1862292358804</v>
+        <v>0.462247899159664</v>
       </c>
       <c r="O80" t="n">
-        <v>5.48488372093023</v>
+        <v>0.545149159663865</v>
       </c>
     </row>
     <row r="81">
@@ -5032,13 +5032,13 @@
         <v>59.426852352623</v>
       </c>
       <c r="M81" t="n">
-        <v>5.74477987421384</v>
+        <v>0.6238957952468</v>
       </c>
       <c r="N81" t="n">
-        <v>4.07913522012579</v>
+        <v>0.420241316270567</v>
       </c>
       <c r="O81" t="n">
-        <v>5.56360062893082</v>
+        <v>0.54189213893967</v>
       </c>
     </row>
     <row r="82">
@@ -5079,13 +5079,13 @@
         <v>96.6545948392938</v>
       </c>
       <c r="M82" t="n">
-        <v>5.75762019230769</v>
+        <v>0.579919354838709</v>
       </c>
       <c r="N82" t="n">
-        <v>3.93860576923077</v>
+        <v>0.409777419354839</v>
       </c>
       <c r="O82" t="n">
-        <v>5.55625</v>
+        <v>0.507032258064516</v>
       </c>
     </row>
     <row r="83">
@@ -5126,13 +5126,13 @@
         <v>106.73627314085</v>
       </c>
       <c r="M83" t="n">
-        <v>5.91296171927468</v>
+        <v>0.618239401496259</v>
       </c>
       <c r="N83" t="n">
-        <v>3.95122901276024</v>
+        <v>0.390322527015794</v>
       </c>
       <c r="O83" t="n">
-        <v>5.68103425117529</v>
+        <v>0.477481296758107</v>
       </c>
     </row>
     <row r="84">
@@ -5173,13 +5173,13 @@
         <v>77.5295535545187</v>
       </c>
       <c r="M84" t="n">
-        <v>5.94821681864235</v>
+        <v>0.619432467532469</v>
       </c>
       <c r="N84" t="n">
-        <v>4.01789260385005</v>
+        <v>0.417751948051949</v>
       </c>
       <c r="O84" t="n">
-        <v>5.75853596757852</v>
+        <v>0.497487012987012</v>
       </c>
     </row>
     <row r="85">
@@ -5220,13 +5220,13 @@
         <v>70.9086723119427</v>
       </c>
       <c r="M85" t="n">
-        <v>5.73718072289157</v>
+        <v>0.593175716440423</v>
       </c>
       <c r="N85" t="n">
-        <v>4.00371686746988</v>
+        <v>0.406963046757165</v>
       </c>
       <c r="O85" t="n">
-        <v>5.5706686746988</v>
+        <v>0.485103318250377</v>
       </c>
     </row>
     <row r="86">
@@ -5267,13 +5267,13 @@
         <v>73.1239669421488</v>
       </c>
       <c r="M86" t="n">
-        <v>5.81560859188544</v>
+        <v>0.600140243902438</v>
       </c>
       <c r="N86" t="n">
-        <v>4.00961813842482</v>
+        <v>0.42395274390244</v>
       </c>
       <c r="O86" t="n">
-        <v>5.63917661097852</v>
+        <v>0.511211890243903</v>
       </c>
     </row>
     <row r="87">
@@ -5314,13 +5314,13 @@
         <v>54.7393123150699</v>
       </c>
       <c r="M87" t="n">
-        <v>6.16072127139364</v>
+        <v>0.656325153374233</v>
       </c>
       <c r="N87" t="n">
-        <v>4.04987775061125</v>
+        <v>0.401791411042945</v>
       </c>
       <c r="O87" t="n">
-        <v>5.69068459657702</v>
+        <v>0.510007668711657</v>
       </c>
     </row>
     <row r="88">
@@ -5361,13 +5361,13 @@
         <v>85.7498118030147</v>
       </c>
       <c r="M88" t="n">
-        <v>5.86893758932825</v>
+        <v>0.6025752528257</v>
       </c>
       <c r="N88" t="n">
-        <v>4.07969509290138</v>
+        <v>0.430985722784059</v>
       </c>
       <c r="O88" t="n">
-        <v>5.60445450214388</v>
+        <v>0.502227840571088</v>
       </c>
     </row>
     <row r="89">
@@ -5408,13 +5408,13 @@
         <v>52.7785119218615</v>
       </c>
       <c r="M89" t="n">
-        <v>5.97629820051414</v>
+        <v>0.623602898550724</v>
       </c>
       <c r="N89" t="n">
-        <v>4.07830334190231</v>
+        <v>0.461292753623189</v>
       </c>
       <c r="O89" t="n">
-        <v>5.71894601542416</v>
+        <v>0.545695652173913</v>
       </c>
     </row>
     <row r="90">
@@ -5455,13 +5455,13 @@
         <v>79.6882370117473</v>
       </c>
       <c r="M90" t="n">
-        <v>5.9589007470651</v>
+        <v>0.637731002017483</v>
       </c>
       <c r="N90" t="n">
-        <v>4.06557630736393</v>
+        <v>0.418400134498992</v>
       </c>
       <c r="O90" t="n">
-        <v>5.66532550693703</v>
+        <v>0.533915938130466</v>
       </c>
     </row>
     <row r="91">
@@ -5502,13 +5502,13 @@
         <v>69.1960066162571</v>
       </c>
       <c r="M91" t="n">
-        <v>5.7612600536193</v>
+        <v>0.595815275310834</v>
       </c>
       <c r="N91" t="n">
-        <v>4.05581769436997</v>
+        <v>0.42328596802842</v>
       </c>
       <c r="O91" t="n">
-        <v>5.57103217158177</v>
+        <v>0.502969804618118</v>
       </c>
     </row>
     <row r="92">
@@ -5549,13 +5549,13 @@
         <v>101.192621095518</v>
       </c>
       <c r="M92" t="n">
-        <v>5.66507344632768</v>
+        <v>0.572766423357663</v>
       </c>
       <c r="N92" t="n">
-        <v>4.08912994350282</v>
+        <v>0.41963795620438</v>
       </c>
       <c r="O92" t="n">
-        <v>5.5141581920904</v>
+        <v>0.466382481751825</v>
       </c>
     </row>
     <row r="93">
@@ -5596,13 +5596,13 @@
         <v>115.657844990548</v>
       </c>
       <c r="M93" t="n">
-        <v>5.81715736040609</v>
+        <v>0.615901877133105</v>
       </c>
       <c r="N93" t="n">
-        <v>3.99850616388687</v>
+        <v>0.429488907849829</v>
       </c>
       <c r="O93" t="n">
-        <v>5.62332124728064</v>
+        <v>0.511979522184302</v>
       </c>
     </row>
     <row r="94">
@@ -5643,13 +5643,13 @@
         <v>80.2132098765432</v>
       </c>
       <c r="M94" t="n">
-        <v>5.68149293880296</v>
+        <v>0.575182046979866</v>
       </c>
       <c r="N94" t="n">
-        <v>4.06336247478144</v>
+        <v>0.416686241610738</v>
       </c>
       <c r="O94" t="n">
-        <v>5.48011432414257</v>
+        <v>0.485515939597316</v>
       </c>
     </row>
     <row r="95">
@@ -5690,13 +5690,13 @@
         <v>75</v>
       </c>
       <c r="M95" t="n">
-        <v>6.07305454545455</v>
+        <v>0.650513274336283</v>
       </c>
       <c r="N95" t="n">
-        <v>4.12461818181818</v>
+        <v>0.431442477876106</v>
       </c>
       <c r="O95" t="n">
-        <v>5.70258181818182</v>
+        <v>0.533960176991151</v>
       </c>
     </row>
     <row r="96">
@@ -5737,13 +5737,13 @@
         <v>61.3299319727891</v>
       </c>
       <c r="M96" t="n">
-        <v>5.814</v>
+        <v>0.602651750972762</v>
       </c>
       <c r="N96" t="n">
-        <v>4.104</v>
+        <v>0.424817120622568</v>
       </c>
       <c r="O96" t="n">
-        <v>5.48959689922481</v>
+        <v>0.499854085603113</v>
       </c>
     </row>
     <row r="97">
@@ -5784,13 +5784,13 @@
         <v>108.32100591716</v>
       </c>
       <c r="M97" t="n">
-        <v>6.03530909090909</v>
+        <v>0.659331753554502</v>
       </c>
       <c r="N97" t="n">
-        <v>4.15767272727273</v>
+        <v>0.419099526066351</v>
       </c>
       <c r="O97" t="n">
-        <v>5.72061818181818</v>
+        <v>0.55649289099526</v>
       </c>
     </row>
     <row r="98">
@@ -5831,13 +5831,13 @@
         <v>42.2099125364431</v>
       </c>
       <c r="M98" t="n">
-        <v>6.05848920863309</v>
+        <v>0.661442060085837</v>
       </c>
       <c r="N98" t="n">
-        <v>3.97338129496403</v>
+        <v>0.423248927038627</v>
       </c>
       <c r="O98" t="n">
-        <v>5.81244604316547</v>
+        <v>0.534412017167382</v>
       </c>
     </row>
     <row r="99">
@@ -5878,13 +5878,13 @@
         <v>73.1111111111111</v>
       </c>
       <c r="M99" t="n">
-        <v>5.73246428571429</v>
+        <v>0.563073684210527</v>
       </c>
       <c r="N99" t="n">
-        <v>4.05057142857143</v>
+        <v>0.431484210526316</v>
       </c>
       <c r="O99" t="n">
-        <v>5.58528571428571</v>
+        <v>0.486363157894737</v>
       </c>
     </row>
     <row r="100">
@@ -5925,13 +5925,13 @@
         <v>62.20032</v>
       </c>
       <c r="M100" t="n">
-        <v>5.94124047878128</v>
+        <v>0.636166219839142</v>
       </c>
       <c r="N100" t="n">
-        <v>4.16615886833515</v>
+        <v>0.43914745308311</v>
       </c>
       <c r="O100" t="n">
-        <v>5.72558215451578</v>
+        <v>0.522231903485255</v>
       </c>
     </row>
     <row r="101">
@@ -5972,13 +5972,13 @@
         <v>86.4363965595292</v>
       </c>
       <c r="M101" t="n">
-        <v>5.81989898989899</v>
+        <v>0.61946530612245</v>
       </c>
       <c r="N101" t="n">
-        <v>4.11080808080808</v>
+        <v>0.43708804664723</v>
       </c>
       <c r="O101" t="n">
-        <v>5.5742378328742</v>
+        <v>0.521283965014578</v>
       </c>
     </row>
     <row r="102">
@@ -6019,13 +6019,13 @@
         <v>42.3593964334705</v>
       </c>
       <c r="M102" t="n">
-        <v>6.10654838709677</v>
+        <v>0.655334710743801</v>
       </c>
       <c r="N102" t="n">
-        <v>4.00961290322581</v>
+        <v>0.39851652892562</v>
       </c>
       <c r="O102" t="n">
-        <v>5.742</v>
+        <v>0.479103305785124</v>
       </c>
     </row>
     <row r="103">
@@ -6060,19 +6060,19 @@
         <v>0.5032414910859</v>
       </c>
       <c r="K103" t="n">
-        <v>0.496758508914101</v>
+        <v>0.4967585089141</v>
       </c>
       <c r="L103" t="n">
         <v>48.3134755463059</v>
       </c>
       <c r="M103" t="n">
-        <v>5.49367436743674</v>
+        <v>0.571315013404826</v>
       </c>
       <c r="N103" t="n">
-        <v>4.0549394939494</v>
+        <v>0.429182305630027</v>
       </c>
       <c r="O103" t="n">
-        <v>5.41634763476348</v>
+        <v>0.512808310991956</v>
       </c>
     </row>
     <row r="104">
@@ -6113,13 +6113,13 @@
         <v>38.4601629696695</v>
       </c>
       <c r="M104" t="n">
-        <v>5.92985989492119</v>
+        <v>0.634164705882354</v>
       </c>
       <c r="N104" t="n">
-        <v>3.99851138353765</v>
+        <v>0.43668431372549</v>
       </c>
       <c r="O104" t="n">
-        <v>5.65406304728546</v>
+        <v>0.508227450980392</v>
       </c>
     </row>
     <row r="105">
@@ -6160,13 +6160,13 @@
         <v>62.4552789867475</v>
       </c>
       <c r="M105" t="n">
-        <v>5.80273684210526</v>
+        <v>0.60367469879518</v>
       </c>
       <c r="N105" t="n">
-        <v>4.07691866028708</v>
+        <v>0.427437349397591</v>
       </c>
       <c r="O105" t="n">
-        <v>5.65351196172249</v>
+        <v>0.493453012048193</v>
       </c>
     </row>
     <row r="106">
@@ -6207,13 +6207,13 @@
         <v>41.4037292534663</v>
       </c>
       <c r="M106" t="n">
-        <v>5.8893215339233</v>
+        <v>0.622986220472441</v>
       </c>
       <c r="N106" t="n">
-        <v>3.94262536873156</v>
+        <v>0.42048031496063</v>
       </c>
       <c r="O106" t="n">
-        <v>5.65902654867257</v>
+        <v>0.483427165354332</v>
       </c>
     </row>
     <row r="107">
@@ -6254,13 +6254,13 @@
         <v>47.4728558202172</v>
       </c>
       <c r="M107" t="n">
-        <v>5.873584</v>
+        <v>0.605147859922179</v>
       </c>
       <c r="N107" t="n">
-        <v>3.993168</v>
+        <v>0.403928015564202</v>
       </c>
       <c r="O107" t="n">
-        <v>5.67072</v>
+        <v>0.480003891050584</v>
       </c>
     </row>
     <row r="108">
@@ -6301,13 +6301,13 @@
         <v>56.1782525510204</v>
       </c>
       <c r="M108" t="n">
-        <v>5.83542691751085</v>
+        <v>0.59948901098901</v>
       </c>
       <c r="N108" t="n">
-        <v>4.06684515195369</v>
+        <v>0.419844322344322</v>
       </c>
       <c r="O108" t="n">
-        <v>5.65858176555716</v>
+        <v>0.472619047619047</v>
       </c>
     </row>
     <row r="109">
@@ -6339,22 +6339,22 @@
         <v>53.2905296950241</v>
       </c>
       <c r="J109" t="n">
-        <v>0.482855258819651</v>
+        <v>0.48285525881965</v>
       </c>
       <c r="K109" t="n">
-        <v>0.517144741180349</v>
+        <v>0.51714474118035</v>
       </c>
       <c r="L109" t="n">
         <v>72.161536053428</v>
       </c>
       <c r="M109" t="n">
-        <v>5.76533333333333</v>
+        <v>0.585532851115131</v>
       </c>
       <c r="N109" t="n">
-        <v>4.11106666666667</v>
+        <v>0.435160337552744</v>
       </c>
       <c r="O109" t="n">
-        <v>5.54596666666667</v>
+        <v>0.499600964436409</v>
       </c>
     </row>
     <row r="110">
@@ -6395,13 +6395,13 @@
         <v>59.0070180377647</v>
       </c>
       <c r="M110" t="n">
-        <v>5.84677546426562</v>
+        <v>0.631058446186744</v>
       </c>
       <c r="N110" t="n">
-        <v>4.10961170512099</v>
+        <v>0.435236635780472</v>
       </c>
       <c r="O110" t="n">
-        <v>5.62292628024761</v>
+        <v>0.53976336421953</v>
       </c>
     </row>
     <row r="111">
@@ -6442,13 +6442,13 @@
         <v>38.7489711934156</v>
       </c>
       <c r="M111" t="n">
-        <v>6.02761029411765</v>
+        <v>0.632960975609756</v>
       </c>
       <c r="N111" t="n">
-        <v>3.97555147058823</v>
+        <v>0.393760975609757</v>
       </c>
       <c r="O111" t="n">
-        <v>5.66992647058824</v>
+        <v>0.496653658536586</v>
       </c>
     </row>
     <row r="112">
@@ -6489,13 +6489,13 @@
         <v>93.2084775086505</v>
       </c>
       <c r="M112" t="n">
-        <v>5.76582894736842</v>
+        <v>0.624041666666667</v>
       </c>
       <c r="N112" t="n">
-        <v>4.10836842105263</v>
+        <v>0.424233333333334</v>
       </c>
       <c r="O112" t="n">
-        <v>5.52839473684211</v>
+        <v>0.535723333333334</v>
       </c>
     </row>
     <row r="113">
@@ -6521,7 +6521,7 @@
         <v>8.32949228182405</v>
       </c>
       <c r="H113" t="n">
-        <v>0.674210526315789</v>
+        <v>0.67421052631579</v>
       </c>
       <c r="I113" t="n">
         <v>53.8135593220339</v>
@@ -6536,13 +6536,13 @@
         <v>64.6695511087074</v>
       </c>
       <c r="M113" t="n">
-        <v>5.7951746031746</v>
+        <v>0.587953124999999</v>
       </c>
       <c r="N113" t="n">
-        <v>4.04580952380952</v>
+        <v>0.422919921875001</v>
       </c>
       <c r="O113" t="n">
-        <v>5.61725396825397</v>
+        <v>0.498328125000001</v>
       </c>
     </row>
     <row r="114">
@@ -6583,13 +6583,13 @@
         <v>72.535888671875</v>
       </c>
       <c r="M114" t="n">
-        <v>6.07604</v>
+        <v>0.645972789115648</v>
       </c>
       <c r="N114" t="n">
-        <v>4.06418</v>
+        <v>0.388448979591836</v>
       </c>
       <c r="O114" t="n">
-        <v>5.72998</v>
+        <v>0.490231292517007</v>
       </c>
     </row>
     <row r="115">
@@ -6630,13 +6630,13 @@
         <v>78.5520987654321</v>
       </c>
       <c r="M115" t="n">
-        <v>5.97117647058823</v>
+        <v>0.641659459459459</v>
       </c>
       <c r="N115" t="n">
-        <v>4.08154684095861</v>
+        <v>0.425627027027027</v>
       </c>
       <c r="O115" t="n">
-        <v>5.63470588235294</v>
+        <v>0.516967567567567</v>
       </c>
     </row>
     <row r="116">
@@ -6677,13 +6677,13 @@
         <v>73.353709141207</v>
       </c>
       <c r="M116" t="n">
-        <v>5.85153742414026</v>
+        <v>0.609690115761356</v>
       </c>
       <c r="N116" t="n">
-        <v>3.97954821308159</v>
+        <v>0.413699910952805</v>
       </c>
       <c r="O116" t="n">
-        <v>5.62395144976399</v>
+        <v>0.501990204808549</v>
       </c>
     </row>
     <row r="117">
@@ -6721,16 +6721,16 @@
         <v>0.54295154185022</v>
       </c>
       <c r="L117" t="n">
-        <v>60.8934559221201</v>
+        <v>60.89345592212</v>
       </c>
       <c r="M117" t="n">
-        <v>5.97767123287671</v>
+        <v>0.638172131147542</v>
       </c>
       <c r="N117" t="n">
-        <v>3.92934931506849</v>
+        <v>0.421102459016394</v>
       </c>
       <c r="O117" t="n">
-        <v>5.77979452054795</v>
+        <v>0.530102459016394</v>
       </c>
     </row>
     <row r="118">
@@ -6771,13 +6771,13 @@
         <v>32.8919123204838</v>
       </c>
       <c r="M118" t="n">
-        <v>5.93262458471761</v>
+        <v>0.634972549019607</v>
       </c>
       <c r="N118" t="n">
-        <v>3.98016611295681</v>
+        <v>0.396494117647059</v>
       </c>
       <c r="O118" t="n">
-        <v>5.8036877076412</v>
+        <v>0.460698039215687</v>
       </c>
     </row>
     <row r="119">
@@ -6818,13 +6818,13 @@
         <v>47.7655845145557</v>
       </c>
       <c r="M119" t="n">
-        <v>6.06874107142857</v>
+        <v>0.643926658905703</v>
       </c>
       <c r="N119" t="n">
-        <v>4.2113125</v>
+        <v>0.444944121071013</v>
       </c>
       <c r="O119" t="n">
-        <v>5.67375892857143</v>
+        <v>0.533218859138536</v>
       </c>
     </row>
     <row r="120">
@@ -6865,13 +6865,13 @@
         <v>112.272727272727</v>
       </c>
       <c r="M120" t="n">
-        <v>5.72614035087719</v>
+        <v>0.592618932038835</v>
       </c>
       <c r="N120" t="n">
-        <v>4.04684210526316</v>
+        <v>0.430601941747573</v>
       </c>
       <c r="O120" t="n">
-        <v>5.59719298245614</v>
+        <v>0.521264563106797</v>
       </c>
     </row>
     <row r="121">
@@ -6912,13 +6912,13 @@
         <v>94.6125</v>
       </c>
       <c r="M121" t="n">
-        <v>5.78054545454546</v>
+        <v>0.622664383561644</v>
       </c>
       <c r="N121" t="n">
-        <v>4.12714285714286</v>
+        <v>0.410547945205479</v>
       </c>
       <c r="O121" t="n">
-        <v>5.59667532467532</v>
+        <v>0.505287671232877</v>
       </c>
     </row>
     <row r="122">
@@ -6959,13 +6959,13 @@
         <v>54.6808984710713</v>
       </c>
       <c r="M122" t="n">
-        <v>5.97523479980227</v>
+        <v>0.649884216940891</v>
       </c>
       <c r="N122" t="n">
-        <v>4.04863568956995</v>
+        <v>0.416463132236442</v>
       </c>
       <c r="O122" t="n">
-        <v>5.72369253583786</v>
+        <v>0.527817184643511</v>
       </c>
     </row>
     <row r="123">
@@ -7006,13 +7006,13 @@
         <v>73.9403762355192</v>
       </c>
       <c r="M123" t="n">
-        <v>5.83042234332425</v>
+        <v>0.588250841750842</v>
       </c>
       <c r="N123" t="n">
-        <v>3.94649863760218</v>
+        <v>0.430617845117846</v>
       </c>
       <c r="O123" t="n">
-        <v>5.56765667574932</v>
+        <v>0.497863636363636</v>
       </c>
     </row>
     <row r="124">
@@ -7053,13 +7053,13 @@
         <v>47.1675338189386</v>
       </c>
       <c r="M124" t="n">
-        <v>5.92885264341957</v>
+        <v>0.619699735449736</v>
       </c>
       <c r="N124" t="n">
-        <v>3.98946006749156</v>
+        <v>0.435383597883597</v>
       </c>
       <c r="O124" t="n">
-        <v>5.68255343082115</v>
+        <v>0.498026455026456</v>
       </c>
     </row>
     <row r="125">
@@ -7100,13 +7100,13 @@
         <v>47.9191438763377</v>
       </c>
       <c r="M125" t="n">
-        <v>5.84821428571429</v>
+        <v>0.608604316546763</v>
       </c>
       <c r="N125" t="n">
-        <v>4.0363025210084</v>
+        <v>0.408592326139089</v>
       </c>
       <c r="O125" t="n">
-        <v>5.73892857142857</v>
+        <v>0.493038369304556</v>
       </c>
     </row>
     <row r="126">
@@ -7147,13 +7147,13 @@
         <v>51.2919089888787</v>
       </c>
       <c r="M126" t="n">
-        <v>5.95936395759717</v>
+        <v>0.635863109048726</v>
       </c>
       <c r="N126" t="n">
-        <v>4.00095406360424</v>
+        <v>0.423506960556846</v>
       </c>
       <c r="O126" t="n">
-        <v>5.65370141342756</v>
+        <v>0.517656032482601</v>
       </c>
     </row>
     <row r="127">
@@ -7194,13 +7194,13 @@
         <v>95.0893294720428</v>
       </c>
       <c r="M127" t="n">
-        <v>5.79211726384365</v>
+        <v>0.61116827852998</v>
       </c>
       <c r="N127" t="n">
-        <v>4.01796416938111</v>
+        <v>0.424588007736944</v>
       </c>
       <c r="O127" t="n">
-        <v>5.64065146579805</v>
+        <v>0.516522243713733</v>
       </c>
     </row>
     <row r="128">
@@ -7241,13 +7241,13 @@
         <v>83.2808641975309</v>
       </c>
       <c r="M128" t="n">
-        <v>6.0411377245509</v>
+        <v>0.612670682730924</v>
       </c>
       <c r="N128" t="n">
-        <v>3.9714371257485</v>
+        <v>0.388947791164658</v>
       </c>
       <c r="O128" t="n">
-        <v>5.67083832335329</v>
+        <v>0.47682329317269</v>
       </c>
     </row>
     <row r="129">
@@ -7288,13 +7288,13 @@
         <v>93.0964083175803</v>
       </c>
       <c r="M129" t="n">
-        <v>6.09190255220418</v>
+        <v>0.649303370786517</v>
       </c>
       <c r="N129" t="n">
-        <v>4.09127610208817</v>
+        <v>0.40686797752809</v>
       </c>
       <c r="O129" t="n">
-        <v>5.72473317865429</v>
+        <v>0.503584269662922</v>
       </c>
     </row>
     <row r="130">
@@ -7335,13 +7335,13 @@
         <v>40.654747849553</v>
       </c>
       <c r="M130" t="n">
-        <v>6.02650943396226</v>
+        <v>0.631539393939393</v>
       </c>
       <c r="N130" t="n">
-        <v>3.98790094339623</v>
+        <v>0.408533333333333</v>
       </c>
       <c r="O130" t="n">
-        <v>5.71016509433962</v>
+        <v>0.526563636363636</v>
       </c>
     </row>
     <row r="131">
@@ -7379,16 +7379,16 @@
         <v>0.536997885835095</v>
       </c>
       <c r="L131" t="n">
-        <v>45.7008492228809</v>
+        <v>45.700849222881</v>
       </c>
       <c r="M131" t="n">
-        <v>6.13977505112474</v>
+        <v>0.639317333333333</v>
       </c>
       <c r="N131" t="n">
-        <v>3.95533742331288</v>
+        <v>0.399149333333333</v>
       </c>
       <c r="O131" t="n">
-        <v>5.82257668711656</v>
+        <v>0.487866666666667</v>
       </c>
     </row>
     <row r="132">
@@ -7429,13 +7429,13 @@
         <v>58.698432</v>
       </c>
       <c r="M132" t="n">
-        <v>5.73040272263188</v>
+        <v>0.594552216378663</v>
       </c>
       <c r="N132" t="n">
-        <v>4.02424844015882</v>
+        <v>0.420063110443275</v>
       </c>
       <c r="O132" t="n">
-        <v>5.56060692002269</v>
+        <v>0.508829451540196</v>
       </c>
     </row>
     <row r="133">
@@ -7476,13 +7476,13 @@
         <v>82.4653739612188</v>
       </c>
       <c r="M133" t="n">
-        <v>6.1914450867052</v>
+        <v>0.638123711340206</v>
       </c>
       <c r="N133" t="n">
-        <v>4.04878612716763</v>
+        <v>0.394560137457045</v>
       </c>
       <c r="O133" t="n">
-        <v>5.77323699421965</v>
+        <v>0.493800687285223</v>
       </c>
     </row>
     <row r="134">
@@ -7523,13 +7523,13 @@
         <v>63.2477685441674</v>
       </c>
       <c r="M134" t="n">
-        <v>5.7379443254818</v>
+        <v>0.638008928571428</v>
       </c>
       <c r="N134" t="n">
-        <v>4.15051391862955</v>
+        <v>0.454366071428572</v>
       </c>
       <c r="O134" t="n">
-        <v>5.66706638115632</v>
+        <v>0.550047619047619</v>
       </c>
     </row>
     <row r="135">
@@ -7570,13 +7570,13 @@
         <v>56.3617939575905</v>
       </c>
       <c r="M135" t="n">
-        <v>5.66341584158416</v>
+        <v>0.594433915211969</v>
       </c>
       <c r="N135" t="n">
-        <v>4.18205940594059</v>
+        <v>0.443804239401497</v>
       </c>
       <c r="O135" t="n">
-        <v>5.54894059405941</v>
+        <v>0.53009476309227</v>
       </c>
     </row>
     <row r="136">
@@ -7617,13 +7617,13 @@
         <v>62.0850360378232</v>
       </c>
       <c r="M136" t="n">
-        <v>6.0346821192053</v>
+        <v>0.623644125105664</v>
       </c>
       <c r="N136" t="n">
-        <v>4.08901324503311</v>
+        <v>0.414098901098903</v>
       </c>
       <c r="O136" t="n">
-        <v>5.67696688741722</v>
+        <v>0.503373626373629</v>
       </c>
     </row>
     <row r="137">
@@ -7664,13 +7664,13 @@
         <v>55.6517090447392</v>
       </c>
       <c r="M137" t="n">
-        <v>5.70288296041308</v>
+        <v>0.567393770856506</v>
       </c>
       <c r="N137" t="n">
-        <v>4.00124784853701</v>
+        <v>0.427322580645161</v>
       </c>
       <c r="O137" t="n">
-        <v>5.61415662650602</v>
+        <v>0.488301446051167</v>
       </c>
     </row>
     <row r="138">
@@ -7711,13 +7711,13 @@
         <v>63.72719478738</v>
       </c>
       <c r="M138" t="n">
-        <v>6.14677380952381</v>
+        <v>0.670086124401914</v>
       </c>
       <c r="N138" t="n">
-        <v>3.96541666666667</v>
+        <v>0.411172248803828</v>
       </c>
       <c r="O138" t="n">
-        <v>5.80382142857143</v>
+        <v>0.52293620414673</v>
       </c>
     </row>
     <row r="139">
@@ -7758,13 +7758,13 @@
         <v>62.906</v>
       </c>
       <c r="M139" t="n">
-        <v>6.03442684063374</v>
+        <v>0.643726609963548</v>
       </c>
       <c r="N139" t="n">
-        <v>4.04995340167754</v>
+        <v>0.410667071688942</v>
       </c>
       <c r="O139" t="n">
-        <v>5.73949673811743</v>
+        <v>0.507020656136087</v>
       </c>
     </row>
     <row r="140">
@@ -7805,13 +7805,13 @@
         <v>63.6493791088386</v>
       </c>
       <c r="M140" t="n">
-        <v>5.88073217726397</v>
+        <v>0.620966507177033</v>
       </c>
       <c r="N140" t="n">
-        <v>4.07154142581888</v>
+        <v>0.441131578947369</v>
       </c>
       <c r="O140" t="n">
-        <v>5.66934489402697</v>
+        <v>0.54005023923445</v>
       </c>
     </row>
     <row r="141">
@@ -7852,13 +7852,13 @@
         <v>60.8263926446728</v>
       </c>
       <c r="M141" t="n">
-        <v>5.97767123287671</v>
+        <v>0.637617283950618</v>
       </c>
       <c r="N141" t="n">
-        <v>3.92934931506849</v>
+        <v>0.421139917695474</v>
       </c>
       <c r="O141" t="n">
-        <v>5.77979452054795</v>
+        <v>0.530588477366255</v>
       </c>
     </row>
     <row r="142">
@@ -7893,19 +7893,19 @@
         <v>0.469962785752259</v>
       </c>
       <c r="K142" t="n">
-        <v>0.530037214247741</v>
+        <v>0.53003721424774</v>
       </c>
       <c r="L142" t="n">
         <v>74.3762755102041</v>
       </c>
       <c r="M142" t="n">
-        <v>5.80056155507559</v>
+        <v>0.586975206611569</v>
       </c>
       <c r="N142" t="n">
-        <v>4.16792656587473</v>
+        <v>0.427621671258036</v>
       </c>
       <c r="O142" t="n">
-        <v>5.56331893448524</v>
+        <v>0.464724517906337</v>
       </c>
     </row>
     <row r="143">
@@ -7946,13 +7946,13 @@
         <v>61.3299319727891</v>
       </c>
       <c r="M143" t="n">
-        <v>5.814</v>
+        <v>0.602651750972762</v>
       </c>
       <c r="N143" t="n">
-        <v>4.104</v>
+        <v>0.424817120622568</v>
       </c>
       <c r="O143" t="n">
-        <v>5.48959689922481</v>
+        <v>0.499854085603113</v>
       </c>
     </row>
   </sheetData>
